--- a/data/modeldata_W/libsvm_format.xlsx
+++ b/data/modeldata_W/libsvm_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11260" yWindow="740" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="10240" yWindow="740" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
   <si>
     <t>Delay</t>
   </si>
@@ -351,6 +351,12 @@
   </si>
   <si>
     <t>Column Number</t>
+  </si>
+  <si>
+    <t>1 1:2 52:1 56:1</t>
+  </si>
+  <si>
+    <t>THE ABOVE ROW BECOMES:</t>
   </si>
 </sst>
 </file>
@@ -366,12 +372,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -386,8 +404,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,868 +686,1519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:DB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:106" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="CX1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="CY1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="CZ1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="DA1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="DB1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B9">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B11">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B13">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B14">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B15">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B16">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B45">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B49">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B50">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B54">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B55">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B58">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B59">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B62">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B64">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B66">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B67">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B68">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B69">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B70">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B71">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B72">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B73">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B74">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B75">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B76">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B77">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B78">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B79">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B81">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B82">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B83">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B84">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B85">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B86">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B87">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B88">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B89">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B90">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B91">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B92">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B93">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B94">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B95">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B96">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B97">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B98">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B99">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B100">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B101">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B102">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B103">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B104">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B105">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B106">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>103</v>
+      </c>
+      <c r="B109">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>104</v>
+      </c>
+      <c r="B110">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>105</v>
       </c>
-      <c r="B107">
+      <c r="B111">
         <v>105</v>
       </c>
     </row>

--- a/data/modeldata_W/libsvm_format.xlsx
+++ b/data/modeldata_W/libsvm_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="740" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="111">
   <si>
     <t>Delay</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>THE ABOVE ROW BECOMES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delay or Cancelled </t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:DB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1359,7 +1362,7 @@
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.2">
